--- a/literature_review/project_plan.xlsx
+++ b/literature_review/project_plan.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmssmith/MSc/Thesis/literature_review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1424435-8DD4-4F4B-A5E2-B5CE7D5D3AEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BBB9C66-E794-D04D-906B-B66E16B58BEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="1380" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{42E1EFD9-6BFF-B54C-A3AF-2A11D6F807B3}"/>
+    <workbookView xWindow="37540" yWindow="6500" windowWidth="31520" windowHeight="16120" activeTab="2" xr2:uid="{42E1EFD9-6BFF-B54C-A3AF-2A11D6F807B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Thesis plan" sheetId="2" r:id="rId2"/>
     <sheet name="Summary" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Summary graph" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
   <si>
     <t>TOTAL</t>
   </si>
@@ -229,6 +231,9 @@
   <si>
     <t>TOTALS</t>
   </si>
+  <si>
+    <t>Combined</t>
+  </si>
 </sst>
 </file>
 
@@ -277,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -742,62 +747,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -805,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -813,6 +768,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,20 +783,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -961,29 +907,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2194,6 +2122,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Count of input measure by type of inattention monitored</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2247,63 +2201,76 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Summary!$C$23:$S$23</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Summary!$C$22:$S$23</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>Steering wheel angle</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Steering Torque</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Throttle positon</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Lane position</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Vehicle speed</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Head tracking</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Eye Tracking</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Facial expression</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Posture</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Audio</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>EEG</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>EMG</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>EOG</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>ECG</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>PPG</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Radar heart rate</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Respiration rate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Steering wheel angle</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Steering Torque</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Throttle positon</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Lane position</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Vehicle speed</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Head tracking</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Eye Tracking</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Facial expression</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Posture</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Audio</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>EEG</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>EMG</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>EOG</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>ECG</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>PPG</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Radar heart rate</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Respiration rate</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Driving behaviour</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Driver behaviour</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Driver physiological</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2367,7 +2334,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B5BC-C345-93F4-C671442C9E14}"/>
+              <c16:uniqueId val="{00000000-AF99-A640-86E7-7443B71FA168}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2388,63 +2355,230 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Summary!$C$23:$S$23</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Summary!$C$22:$S$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Steering wheel angle</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Steering Torque</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Throttle positon</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Lane position</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Vehicle speed</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Head tracking</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Eye Tracking</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Facial expression</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Posture</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Audio</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>EEG</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>EMG</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>EOG</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>ECG</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>PPG</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Radar heart rate</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Respiration rate</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Driving behaviour</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Driver behaviour</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Driver physiological</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$25:$S$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>Steering wheel angle</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Steering Torque</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Throttle positon</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lane position</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Vehicle speed</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Head tracking</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Eye Tracking</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Facial expression</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Posture</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Audio</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>EEG</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>EMG</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>EOG</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>ECG</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>PPG</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Radar heart rate</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Respiration rate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF99-A640-86E7-7443B71FA168}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Combined</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Summary!$C$22:$S$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Steering wheel angle</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Steering Torque</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Throttle positon</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Lane position</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Vehicle speed</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Head tracking</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Eye Tracking</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Facial expression</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Posture</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Audio</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>EEG</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>EMG</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>EOG</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>ECG</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>PPG</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Radar heart rate</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Respiration rate</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Driving behaviour</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Driver behaviour</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Driver physiological</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2456,10 +2590,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2468,47 +2602,47 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B5BC-C345-93F4-C671442C9E14}"/>
+              <c16:uniqueId val="{00000004-AF99-A640-86E7-7443B71FA168}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2532,6 +2666,69 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49158670041901015"/>
+              <c:y val="0.91184933837843862"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2580,6 +2777,7 @@
         <c:axId val="96048112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2597,6 +2795,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2631,6 +2884,8 @@
         <c:crossAx val="101983840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2707,11 +2962,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4913,6 +5163,17 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E44E16C1-190A-0F47-9BB9-43774AF699A7}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5028,29 +5289,21 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9306218" cy="6061849"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBB3D8D-99C5-624F-B299-E6C54E5A4FF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC7DD81-95C9-1A48-801E-21CDCE1FC92D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5063,7 +5316,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5607,10 +5860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23B3462-3B3E-8745-96B8-DDECE4A69225}">
-  <dimension ref="B2:V26"/>
+  <dimension ref="B2:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5641,32 +5894,32 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5" t="s">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
       <c r="V8" t="s">
         <v>14</v>
       </c>
@@ -5675,61 +5928,61 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>44319</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>44326</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>44333</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>44340</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="7">
         <v>44347</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="7">
         <v>44354</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="7">
         <v>44361</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="7">
         <v>44368</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="7">
         <v>44375</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="7">
         <v>44382</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="7">
         <v>44389</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="7">
         <v>44396</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="7">
         <v>44403</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="7">
         <v>44410</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="7">
         <v>44417</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="7">
         <v>44424</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="7">
         <v>44431</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="7">
         <v>44438</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="7">
         <v>44445</v>
       </c>
     </row>
@@ -5796,100 +6049,88 @@
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
+      <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="V21" s="10"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="7"/>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="7"/>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="7"/>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="V25" s="9"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="7"/>
-      <c r="C26" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="V26" s="9"/>
+      <c r="V22" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B11:B26"/>
+    <mergeCell ref="B11:B22"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="M8:P8"/>
@@ -5901,10 +6142,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759C579E-4770-9340-9F04-E0C47877620A}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5920,1111 +6161,1364 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:21" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48"/>
-      <c r="E2" s="43" t="s">
+      <c r="B2" s="45"/>
+      <c r="E2" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="43" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="43" t="s">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="45"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="42"/>
     </row>
     <row r="3" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="49">
-        <v>1</v>
-      </c>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="46">
+        <v>1</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="21">
-        <v>1</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25">
-        <v>1</v>
-      </c>
-      <c r="H4" s="25">
-        <v>1</v>
-      </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="26">
-        <v>1</v>
-      </c>
-      <c r="K4" s="25">
-        <v>1</v>
-      </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="24"/>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22">
+        <v>1</v>
+      </c>
+      <c r="H4" s="22">
+        <v>1</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="23">
+        <v>1</v>
+      </c>
+      <c r="K4" s="22">
+        <v>1</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="21"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="22">
-        <v>1</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28">
-        <v>1</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28">
-        <v>1</v>
-      </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="27"/>
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25">
+        <v>1</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="25">
+        <v>1</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="24"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
+      <c r="A6" s="19">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="22">
-        <v>1</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28">
-        <v>1</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="27"/>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25">
+        <v>1</v>
+      </c>
+      <c r="I6" s="24">
+        <v>1</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="24"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
+      <c r="A7" s="19">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22">
-        <v>1</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="29">
-        <v>1</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="27"/>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="26">
+        <v>1</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="24"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="A8" s="19">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="27">
-        <v>1</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="22">
-        <v>1</v>
-      </c>
-      <c r="P8" s="28">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="28">
-        <v>1</v>
-      </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="27"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="19">
+        <v>1</v>
+      </c>
+      <c r="P8" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>1</v>
+      </c>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="24"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+      <c r="A9" s="19">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="27">
-        <v>1</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28">
-        <v>1</v>
-      </c>
-      <c r="U9" s="27"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25">
+        <v>1</v>
+      </c>
+      <c r="U9" s="24"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="A10" s="19">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="27">
-        <v>1</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28">
-        <v>1</v>
-      </c>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="27"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25">
+        <v>1</v>
+      </c>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="24"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+      <c r="A11" s="19">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="27">
-        <v>1</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28">
-        <v>1</v>
-      </c>
-      <c r="T11" s="28"/>
-      <c r="U11" s="27"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25">
+        <v>1</v>
+      </c>
+      <c r="T11" s="25"/>
+      <c r="U11" s="24"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="A12" s="19">
         <v>9</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="27">
-        <v>1</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28">
-        <v>1</v>
-      </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="27"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25">
+        <v>1</v>
+      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="24"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="A13" s="19">
         <v>10</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="27">
-        <v>1</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="22">
-        <v>1</v>
-      </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="27"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="24">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="19">
+        <v>1</v>
+      </c>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="24"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
+      <c r="A14" s="19">
         <v>11</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="27">
-        <v>1</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="22">
-        <v>1</v>
-      </c>
-      <c r="P14" s="28">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="27">
+      <c r="C14" s="19"/>
+      <c r="D14" s="24">
+        <v>1</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="19">
+        <v>1</v>
+      </c>
+      <c r="P14" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+      <c r="A15" s="19">
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="27">
-        <v>1</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="28">
-        <v>1</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28">
-        <v>1</v>
-      </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28">
-        <v>1</v>
-      </c>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="27">
+      <c r="C15" s="19"/>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25">
+        <v>1</v>
+      </c>
+      <c r="N15" s="24"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25">
+        <v>1</v>
+      </c>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+      <c r="A16" s="19">
         <v>13</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="22">
-        <v>1</v>
-      </c>
-      <c r="D16" s="27">
-        <v>1</v>
-      </c>
-      <c r="E16" s="22">
-        <v>1</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28">
-        <v>1</v>
-      </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="29">
-        <v>1</v>
-      </c>
-      <c r="K16" s="28">
-        <v>1</v>
-      </c>
-      <c r="L16" s="28">
-        <v>1</v>
-      </c>
-      <c r="M16" s="28"/>
-      <c r="N16" s="27">
-        <v>1</v>
-      </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28">
-        <v>1</v>
-      </c>
-      <c r="T16" s="28"/>
-      <c r="U16" s="27"/>
+      <c r="C16" s="19">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24">
+        <v>1</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25">
+        <v>1</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="26">
+        <v>1</v>
+      </c>
+      <c r="K16" s="25">
+        <v>1</v>
+      </c>
+      <c r="L16" s="25">
+        <v>1</v>
+      </c>
+      <c r="M16" s="25"/>
+      <c r="N16" s="24">
+        <v>1</v>
+      </c>
+      <c r="O16" s="19"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25">
+        <v>1</v>
+      </c>
+      <c r="T16" s="25"/>
+      <c r="U16" s="24"/>
     </row>
     <row r="17" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="20">
         <v>14</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="23">
-        <v>1</v>
-      </c>
-      <c r="D17" s="30">
-        <v>1</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="32">
-        <v>1</v>
-      </c>
-      <c r="K17" s="31">
-        <v>1</v>
-      </c>
-      <c r="L17" s="31">
-        <v>1</v>
-      </c>
-      <c r="M17" s="31"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="30"/>
+      <c r="C17" s="20">
+        <v>1</v>
+      </c>
+      <c r="D17" s="27">
+        <v>1</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="29">
+        <v>1</v>
+      </c>
+      <c r="K17" s="28">
+        <v>1</v>
+      </c>
+      <c r="L17" s="28">
+        <v>1</v>
+      </c>
+      <c r="M17" s="28"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="27"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="30">
         <f>SUM(C4:C17)</f>
         <v>6</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="30">
         <f t="shared" ref="D18:U18" si="0">SUM(D4:D17)</f>
         <v>10</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="32">
+        <f>SUM(E4:E17)</f>
+        <v>4</v>
+      </c>
+      <c r="F18" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H18" s="33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I18" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F18" s="36">
+      <c r="K18" s="33">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G18" s="36">
+        <v>4</v>
+      </c>
+      <c r="L18" s="33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M18" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P18" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H18" s="36">
+      <c r="Q18" s="33">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I18" s="37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="35">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K18" s="36">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L18" s="36">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M18" s="36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N18" s="37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="35">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="P18" s="36">
+        <v>1</v>
+      </c>
+      <c r="R18" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q18" s="36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R18" s="36">
+      <c r="S18" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="S18" s="36">
+      <c r="T18" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U18" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="T18" s="36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U18" s="37">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="35">
         <f>SUM(E4:E7)</f>
         <v>2</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="30">
         <f t="shared" ref="F19:U19" si="1">SUM(F4:F7)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="30">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="35">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="30">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19" s="39">
+      <c r="N19" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O19" s="38">
+      <c r="O19" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R19" s="33">
+      <c r="R19" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S19" s="33">
+      <c r="S19" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T19" s="33">
+      <c r="T19" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U19" s="39">
+      <c r="U19" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="37">
         <f>SUM(E8:E15)</f>
         <v>1</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="38">
         <f t="shared" ref="F20:U20" si="2">SUM(F8:F15)</f>
         <v>1</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M20" s="41">
+      <c r="M20" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="40">
+      <c r="O20" s="37">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="P20" s="41">
+      <c r="P20" s="38">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q20" s="41">
+      <c r="Q20" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R20" s="41">
+      <c r="R20" s="38">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S20" s="41">
+      <c r="S20" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T20" s="41">
+      <c r="T20" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U20" s="42">
+      <c r="U20" s="39">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="11" t="s">
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="16" t="s">
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="13"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="42"/>
     </row>
     <row r="23" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="54" t="s">
+      <c r="G23" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="53" t="s">
+      <c r="I23" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="53" t="s">
+      <c r="J23" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="K23" s="53" t="s">
+      <c r="K23" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="54" t="s">
+      <c r="L23" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="55" t="s">
+      <c r="M23" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="N23" s="53" t="s">
+      <c r="N23" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="O23" s="53" t="s">
+      <c r="O23" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="53" t="s">
+      <c r="P23" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="Q23" s="53" t="s">
+      <c r="Q23" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="R23" s="53" t="s">
+      <c r="R23" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="S23" s="54" t="s">
+      <c r="S23" s="51" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="46">
         <f>E19</f>
         <v>2</v>
       </c>
-      <c r="D24" s="56">
-        <f t="shared" ref="D24:S24" si="3">F19</f>
+      <c r="D24" s="53">
+        <f>F19</f>
         <v>0</v>
       </c>
-      <c r="E24" s="56">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F24" s="56">
-        <f t="shared" si="3"/>
+      <c r="E24" s="53">
+        <f>G19</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="53">
+        <f>H19</f>
         <v>3</v>
       </c>
-      <c r="G24" s="57">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H24" s="49">
-        <f t="shared" si="3"/>
+      <c r="G24" s="54">
+        <f>I19</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="46">
+        <f>J19</f>
         <v>2</v>
       </c>
-      <c r="I24" s="56">
-        <f t="shared" si="3"/>
+      <c r="I24" s="53">
+        <f>K19</f>
         <v>2</v>
       </c>
-      <c r="J24" s="56">
-        <f t="shared" si="3"/>
+      <c r="J24" s="53">
+        <f>L19</f>
         <v>0</v>
       </c>
-      <c r="K24" s="56">
-        <f t="shared" si="3"/>
+      <c r="K24" s="53">
+        <f>M19</f>
         <v>0</v>
       </c>
-      <c r="L24" s="57">
-        <f t="shared" si="3"/>
+      <c r="L24" s="54">
+        <f>N19</f>
         <v>0</v>
       </c>
-      <c r="M24" s="58">
-        <f t="shared" si="3"/>
+      <c r="M24" s="55">
+        <f>O19</f>
         <v>0</v>
       </c>
-      <c r="N24" s="56">
-        <f t="shared" si="3"/>
+      <c r="N24" s="53">
+        <f>P19</f>
         <v>0</v>
       </c>
-      <c r="O24" s="56">
-        <f t="shared" si="3"/>
+      <c r="O24" s="53">
+        <f>Q19</f>
         <v>0</v>
       </c>
-      <c r="P24" s="56">
-        <f t="shared" si="3"/>
+      <c r="P24" s="53">
+        <f>R19</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="56">
-        <f t="shared" si="3"/>
+      <c r="Q24" s="53">
+        <f>S19</f>
         <v>0</v>
       </c>
-      <c r="R24" s="56">
-        <f t="shared" si="3"/>
+      <c r="R24" s="53">
+        <f>T19</f>
         <v>0</v>
       </c>
-      <c r="S24" s="57">
-        <f t="shared" si="3"/>
+      <c r="S24" s="54">
+        <f>U19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B25" s="60"/>
-      <c r="C25" s="63">
-        <f>SUM(C24:G24)</f>
-        <v>7</v>
-      </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="63">
-        <f>SUM(H24:L24)</f>
-        <v>4</v>
-      </c>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="63">
-        <f>SUM(M24:S24)</f>
+    <row r="25" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="20">
+        <f>E20</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="28">
+        <f>F20</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="28">
+        <f>G20</f>
         <v>0</v>
       </c>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="65"/>
+      <c r="F25" s="28">
+        <f>H20</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="27">
+        <f>I20</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="20">
+        <f>J20</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="28">
+        <f>K20</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="28">
+        <f>L20</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="28">
+        <f>M20</f>
+        <v>1</v>
+      </c>
+      <c r="L25" s="27">
+        <f>N20</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="29">
+        <f>O20</f>
+        <v>3</v>
+      </c>
+      <c r="N25" s="28">
+        <f>P20</f>
+        <v>2</v>
+      </c>
+      <c r="O25" s="28">
+        <f>Q20</f>
+        <v>1</v>
+      </c>
+      <c r="P25" s="28">
+        <f>R20</f>
+        <v>2</v>
+      </c>
+      <c r="Q25" s="28">
+        <f>S20</f>
+        <v>1</v>
+      </c>
+      <c r="R25" s="28">
+        <f>T20</f>
+        <v>1</v>
+      </c>
+      <c r="S25" s="27">
+        <f>U20</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="23">
-        <f>E20</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="31">
-        <f t="shared" ref="D26:S26" si="4">F20</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="31">
-        <f t="shared" si="4"/>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <f>SUM(E16:E17)</f>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f>SUM(F16:F17)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="31">
-        <f t="shared" si="4"/>
+      <c r="E26">
+        <f>SUM(G16:G17)</f>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f>SUM(H16:H17)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="30">
-        <f t="shared" si="4"/>
+      <c r="G26">
+        <f>SUM(I16:I17)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="23">
-        <f t="shared" si="4"/>
+      <c r="H26">
+        <f>SUM(J16:J17)</f>
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <f>SUM(K16:K17)</f>
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <f>SUM(L16:L17)</f>
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <f>SUM(M16:M17)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="31">
-        <f t="shared" si="4"/>
+      <c r="L26">
+        <f>SUM(N16:N17)</f>
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f>SUM(O16:O17)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="31">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="31">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L26" s="30">
-        <f t="shared" si="4"/>
+      <c r="N26">
+        <f>SUM(P16:P17)</f>
         <v>0</v>
       </c>
-      <c r="M26" s="32">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="N26" s="31">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="O26" s="31">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="P26" s="31">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Q26" s="31">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R26" s="31">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S26" s="30">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B27" s="62"/>
-      <c r="C27" s="66">
-        <f>SUM(C26:G26)</f>
-        <v>2</v>
-      </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66">
-        <f>SUM(H26:L26)</f>
-        <v>2</v>
-      </c>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66">
-        <f>SUM(M26:S26)</f>
-        <v>12</v>
-      </c>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
+      <c r="O26">
+        <f>SUM(Q16:Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>SUM(R16:R17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f>SUM(S16:S17)</f>
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <f>SUM(T16:T17)</f>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f>SUM(U16:U17)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="M27:S27"/>
+  <mergeCells count="6">
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="M22:S22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="M25:S25"/>
-    <mergeCell ref="C27:G27"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="O2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E19:U20 C25:S25 C27:S27" formulaRange="1"/>
-    <ignoredError sqref="C26:S26" formula="1"/>
+    <ignoredError sqref="E21:V21 C26:S26 V19 V20 E20:U20 O19:S19" formulaRange="1"/>
+    <ignoredError sqref="C25:S25" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0273DC-1EC7-2442-9EC4-606FF67DF7F9}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/literature_review/project_plan.xlsx
+++ b/literature_review/project_plan.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmssmith/MSc/Thesis/literature_review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BBB9C66-E794-D04D-906B-B66E16B58BEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A723670A-BA1C-F04C-9623-46C5C49B22E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37540" yWindow="6500" windowWidth="31520" windowHeight="16120" activeTab="2" xr2:uid="{42E1EFD9-6BFF-B54C-A3AF-2A11D6F807B3}"/>
+    <workbookView xWindow="38980" yWindow="4160" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{42E1EFD9-6BFF-B54C-A3AF-2A11D6F807B3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Thesis plan" sheetId="2" r:id="rId2"/>
-    <sheet name="Summary" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
-    <sheet name="Summary graph" sheetId="4" r:id="rId5"/>
+    <sheet name="radar_frequencies" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Thesis plan" sheetId="2" r:id="rId3"/>
+    <sheet name="Summary" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Summary graph" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <t>TOTAL</t>
   </si>
@@ -47,9 +48,6 @@
   </si>
   <si>
     <t>Percentage</t>
-  </si>
-  <si>
-    <t>Cumulative frequency</t>
   </si>
   <si>
     <t>Item</t>
@@ -86,9 +84,6 @@
   </si>
   <si>
     <t>Final report Submission</t>
-  </si>
-  <si>
-    <t>Final report draft complete</t>
   </si>
   <si>
     <t>Final report structure agreed</t>
@@ -234,6 +229,21 @@
   <si>
     <t>Combined</t>
   </si>
+  <si>
+    <t>Cumulative percentage</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Report writing</t>
+  </si>
+  <si>
+    <t>Report draft review</t>
+  </si>
+  <si>
+    <t>Experiment set up complete</t>
+  </si>
 </sst>
 </file>
 
@@ -262,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +291,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -760,7 +782,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -913,6 +935,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,6 +957,519 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Usage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of different radar freqencies for vital sign detection</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD79-004A-8407-55DB140E0C53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="122983680"/>
+        <c:axId val="123255712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="122983680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Radar frequency (GHz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="123255712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="123255712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percenetage of considered</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> works</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="122983680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -990,7 +1528,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cumulative frequency</c:v>
+                  <c:v>Cumulative percentage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1334,7 +1872,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1734,7 +2272,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1794,7 +2332,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cumulative frequency</c:v>
+                  <c:v>Cumulative percentage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2003,6 +2541,7 @@
         <c:axId val="100968848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2107,7 +2646,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3125,8 +3664,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3153,8 +3732,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3255,7 +3834,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3287,10 +3866,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3330,23 +3909,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3451,8 +4029,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3584,20 +4162,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3611,17 +4188,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4158,7 +4724,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4185,8 +4751,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4287,7 +4853,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4319,10 +4885,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4362,22 +4928,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4482,8 +5049,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4615,19 +5182,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4641,6 +5209,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5163,11 +5742,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1D29BF80-B476-DD4E-8ACB-FA32738E5071}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E44E16C1-190A-0F47-9BB9-43774AF699A7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="153" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5175,6 +6268,39 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9313333" cy="6076078"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADE9153-3A91-464A-AD2F-9E7608AF0398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5214,16 +6340,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5250,16 +6376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5287,7 +6413,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -5619,8 +6745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2E0377-B633-7E48-A58A-008AFD0AF079}">
   <dimension ref="B1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5636,7 +6762,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
@@ -5860,10 +6986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23B3462-3B3E-8745-96B8-DDECE4A69225}">
-  <dimension ref="B2:V22"/>
+  <dimension ref="B2:V25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5876,7 +7002,7 @@
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4">
         <v>44449</v>
@@ -5884,7 +7010,7 @@
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4">
         <v>44447</v>
@@ -5892,41 +7018,41 @@
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
         <v>44319</v>
@@ -5988,7 +7114,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>18</v>
@@ -6050,10 +7176,10 @@
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -6063,74 +7189,136 @@
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
-      <c r="C16" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="60"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="60"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
+      <c r="C17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
       <c r="C18" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="C19" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="N19" s="58"/>
+      <c r="R19" s="58"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
-        <v>16</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="O20" s="58"/>
+      <c r="S20" s="58"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="V21" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="S21" s="59"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="V22" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B24" s="8"/>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="10"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="V25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B11:B22"/>
+    <mergeCell ref="B11:B25"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="M8:P8"/>
@@ -6144,8 +7332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759C579E-4770-9340-9F04-E0C47877620A}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6163,21 +7351,21 @@
     <row r="2" spans="1:21" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="45"/>
       <c r="E2" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
       <c r="I2" s="42"/>
       <c r="J2" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K2" s="41"/>
       <c r="L2" s="41"/>
       <c r="M2" s="41"/>
       <c r="N2" s="42"/>
       <c r="O2" s="40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P2" s="41"/>
       <c r="Q2" s="41"/>
@@ -6189,64 +7377,64 @@
     <row r="3" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="F3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="K3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="L3" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="14" t="s">
+      <c r="R3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>40</v>
-      </c>
       <c r="U3" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -6254,7 +7442,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="18">
         <v>1</v>
@@ -6293,7 +7481,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="19">
         <v>1</v>
@@ -6328,7 +7516,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="19">
         <v>1</v>
@@ -6361,7 +7549,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="19">
         <v>1</v>
@@ -6392,7 +7580,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="24">
@@ -6427,7 +7615,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="24">
@@ -6458,7 +7646,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="24">
@@ -6489,7 +7677,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="24">
@@ -6520,7 +7708,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="24">
@@ -6551,7 +7739,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="24">
@@ -6582,7 +7770,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="24">
@@ -6617,7 +7805,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="24">
@@ -6656,7 +7844,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="19">
         <v>1</v>
@@ -6701,7 +7889,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="20">
         <v>1</v>
@@ -6736,7 +7924,7 @@
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="30">
         <f>SUM(C4:C17)</f>
@@ -6817,7 +8005,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B19" s="31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" s="35">
         <f>SUM(E4:E7)</f>
@@ -6890,7 +8078,7 @@
     </row>
     <row r="20" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20" s="37">
         <f>SUM(E8:E15)</f>
@@ -6964,21 +8152,21 @@
     <row r="21" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C22" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
       <c r="G22" s="42"/>
       <c r="H22" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I22" s="41"/>
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
       <c r="L22" s="42"/>
       <c r="M22" s="40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N22" s="41"/>
       <c r="O22" s="41"/>
@@ -6989,60 +8177,60 @@
     </row>
     <row r="23" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="50" t="s">
-        <v>31</v>
-      </c>
       <c r="J23" s="50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K23" s="50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L23" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M23" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="N23" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="O23" s="50" t="s">
+      <c r="P23" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q23" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="R23" s="50" t="s">
-        <v>40</v>
-      </c>
       <c r="S23" s="51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="57" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="46">
         <f>E19</f>
@@ -7115,7 +8303,7 @@
     </row>
     <row r="25" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="56" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="20">
         <f>E20</f>
@@ -7188,7 +8376,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26">
         <f>SUM(E16:E17)</f>
@@ -7288,71 +8476,71 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="s">
         <v>38</v>
       </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>40</v>
-      </c>
       <c r="R2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7408,7 +8596,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7464,7 +8652,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>1</v>

--- a/literature_review/project_plan.xlsx
+++ b/literature_review/project_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmssmith/MSc/Thesis/literature_review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A723670A-BA1C-F04C-9623-46C5C49B22E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8EA374C4-C365-344B-BD01-3657E96DB630}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38980" yWindow="4160" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{42E1EFD9-6BFF-B54C-A3AF-2A11D6F807B3}"/>
+    <workbookView xWindow="6420" yWindow="3460" windowWidth="27240" windowHeight="15920" activeTab="3" xr2:uid="{42E1EFD9-6BFF-B54C-A3AF-2A11D6F807B3}"/>
   </bookViews>
   <sheets>
     <sheet name="radar_frequencies" sheetId="6" r:id="rId1"/>
@@ -304,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -563,70 +563,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -782,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -813,28 +750,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -843,22 +768,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -883,19 +805,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -908,16 +830,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -929,10 +851,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -3011,13 +2933,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
@@ -3168,10 +3090,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -6249,7 +6171,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1D29BF80-B476-DD4E-8ACB-FA32738E5071}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6260,7 +6182,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E44E16C1-190A-0F47-9BB9-43774AF699A7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6746,7 +6668,7 @@
   <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6988,15 +6910,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23B3462-3B3E-8745-96B8-DDECE4A69225}">
   <dimension ref="B2:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="4.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="7" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="22" width="7" customWidth="1"/>
     <col min="23" max="23" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7191,116 +7114,116 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="60"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="60"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="55"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="58"/>
-      <c r="R19" s="58"/>
+      <c r="N19" s="53"/>
+      <c r="R19" s="53"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="58"/>
-      <c r="S20" s="58"/>
+      <c r="O20" s="53"/>
+      <c r="S20" s="53"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="S21" s="59"/>
+      <c r="S21" s="54"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>66</v>
       </c>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>
@@ -7332,8 +7255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759C579E-4770-9340-9F04-E0C47877620A}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7349,40 +7272,40 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:21" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="45"/>
-      <c r="E2" s="40" t="s">
+      <c r="B2" s="40"/>
+      <c r="E2" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="40" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="40" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="42"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="37"/>
     </row>
     <row r="3" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="38" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -7438,938 +7361,938 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="46">
-        <v>1</v>
-      </c>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="41">
+        <v>1</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="18">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="18">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22">
-        <v>1</v>
-      </c>
-      <c r="H4" s="22">
-        <v>1</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="23">
-        <v>1</v>
-      </c>
-      <c r="K4" s="22">
-        <v>1</v>
-      </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21"/>
+      <c r="C4" s="41">
+        <v>1</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="41">
+        <v>1</v>
+      </c>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48">
+        <v>1</v>
+      </c>
+      <c r="H4" s="48">
+        <v>1</v>
+      </c>
+      <c r="I4" s="49"/>
+      <c r="J4" s="41">
+        <v>1</v>
+      </c>
+      <c r="K4" s="48">
+        <v>1</v>
+      </c>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="19">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25">
-        <v>1</v>
-      </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="25">
-        <v>1</v>
-      </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="24"/>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="18">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21">
+        <v>1</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="21">
+        <v>1</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="19">
-        <v>1</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25">
-        <v>1</v>
-      </c>
-      <c r="I6" s="24">
-        <v>1</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="24"/>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21">
+        <v>1</v>
+      </c>
+      <c r="I6" s="20">
+        <v>1</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="20"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="19">
-        <v>1</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="26">
-        <v>1</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="24"/>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="20"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
-        <v>5</v>
+      <c r="A8" s="18">
+        <v>13</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="24">
-        <v>1</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="19">
-        <v>1</v>
-      </c>
-      <c r="P8" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>1</v>
-      </c>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="24"/>
+        <v>48</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="18">
+        <v>1</v>
+      </c>
+      <c r="K8" s="21">
+        <v>1</v>
+      </c>
+      <c r="L8" s="21">
+        <v>1</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20">
+        <v>1</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21">
+        <v>1</v>
+      </c>
+      <c r="U8" s="20"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
-        <v>6</v>
+      <c r="A9" s="18">
+        <v>14</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="24">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25">
-        <v>1</v>
-      </c>
-      <c r="U9" s="24"/>
+        <v>50</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="18">
+        <v>1</v>
+      </c>
+      <c r="K9" s="21">
+        <v>1</v>
+      </c>
+      <c r="L9" s="21">
+        <v>1</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="20"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
-        <v>7</v>
+      <c r="A10" s="18">
+        <v>5</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="24">
-        <v>1</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25">
-        <v>1</v>
-      </c>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="24"/>
+        <v>33</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="18">
+        <v>1</v>
+      </c>
+      <c r="P10" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>1</v>
+      </c>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="20"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
-        <v>8</v>
+      <c r="A11" s="18">
+        <v>6</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="24">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25">
-        <v>1</v>
-      </c>
-      <c r="T11" s="25"/>
-      <c r="U11" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="20">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21">
+        <v>1</v>
+      </c>
+      <c r="U11" s="20"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
-        <v>9</v>
+      <c r="A12" s="18">
+        <v>7</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="24">
-        <v>1</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25">
-        <v>1</v>
-      </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="20">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21">
+        <v>1</v>
+      </c>
+      <c r="U12" s="20"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
-        <v>10</v>
+      <c r="A13" s="18">
+        <v>8</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="24">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="19">
-        <v>1</v>
-      </c>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="24"/>
+        <v>42</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="20">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21">
+        <v>1</v>
+      </c>
+      <c r="U13" s="20"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
-        <v>11</v>
+      <c r="A14" s="18">
+        <v>9</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="24">
-        <v>1</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="19">
-        <v>1</v>
-      </c>
-      <c r="P14" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="24">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="20">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21">
+        <v>1</v>
+      </c>
+      <c r="M14" s="21"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="20"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
-        <v>12</v>
+      <c r="A15" s="18">
+        <v>10</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="24">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="25">
-        <v>1</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25">
-        <v>1</v>
-      </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25">
-        <v>1</v>
-      </c>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="24">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="20">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="18">
+        <v>1</v>
+      </c>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="20"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
-        <v>13</v>
+      <c r="A16" s="18">
+        <v>11</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="19">
-        <v>1</v>
-      </c>
-      <c r="D16" s="24">
-        <v>1</v>
-      </c>
-      <c r="E16" s="19">
-        <v>1</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25">
-        <v>1</v>
-      </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="26">
-        <v>1</v>
-      </c>
-      <c r="K16" s="25">
-        <v>1</v>
-      </c>
-      <c r="L16" s="25">
-        <v>1</v>
-      </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="24">
-        <v>1</v>
-      </c>
-      <c r="O16" s="19"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25">
-        <v>1</v>
-      </c>
-      <c r="T16" s="25"/>
-      <c r="U16" s="24"/>
+        <v>51</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="20">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="18">
+        <v>1</v>
+      </c>
+      <c r="P16" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
-        <v>14</v>
+      <c r="A17" s="19">
+        <v>12</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="20">
-        <v>1</v>
-      </c>
-      <c r="D17" s="27">
-        <v>1</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="29">
-        <v>1</v>
-      </c>
-      <c r="K17" s="28">
-        <v>1</v>
-      </c>
-      <c r="L17" s="28">
-        <v>1</v>
-      </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="22">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23">
+        <v>1</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23">
+        <v>1</v>
+      </c>
+      <c r="N17" s="22"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23">
+        <v>1</v>
+      </c>
+      <c r="U17" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="25">
         <f>SUM(C4:C17)</f>
         <v>6</v>
       </c>
-      <c r="D18" s="30">
-        <f t="shared" ref="D18:U18" si="0">SUM(D4:D17)</f>
+      <c r="D18" s="25">
+        <f>SUM(D4:D17)</f>
         <v>10</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="27">
         <f>SUM(E4:E17)</f>
         <v>4</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="28">
+        <f>SUM(F4:F17)</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="28">
+        <f>SUM(G4:G17)</f>
+        <v>2</v>
+      </c>
+      <c r="H18" s="28">
+        <f>SUM(H4:H17)</f>
+        <v>3</v>
+      </c>
+      <c r="I18" s="29">
+        <f>SUM(I4:I17)</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="27">
+        <f>SUM(J4:J17)</f>
+        <v>4</v>
+      </c>
+      <c r="K18" s="28">
+        <f>SUM(K4:K17)</f>
+        <v>4</v>
+      </c>
+      <c r="L18" s="28">
+        <f>SUM(L4:L17)</f>
+        <v>3</v>
+      </c>
+      <c r="M18" s="28">
+        <f>SUM(M4:M17)</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="29">
+        <f>SUM(N4:N17)</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="27">
+        <f>SUM(O4:O17)</f>
+        <v>3</v>
+      </c>
+      <c r="P18" s="28">
+        <f>SUM(P4:P17)</f>
+        <v>2</v>
+      </c>
+      <c r="Q18" s="28">
+        <f>SUM(Q4:Q17)</f>
+        <v>1</v>
+      </c>
+      <c r="R18" s="28">
+        <f>SUM(R4:R17)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="28">
+        <f>SUM(S4:S17)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="28">
+        <f>SUM(T4:T17)</f>
+        <v>5</v>
+      </c>
+      <c r="U18" s="29">
+        <f>SUM(U4:U17)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="30">
+        <f>SUM(E4:E7)</f>
+        <v>2</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" ref="F19:U19" si="0">SUM(F4:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G18" s="33">
+      <c r="H19" s="25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I19" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H18" s="33">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I18" s="34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="32">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K18" s="33">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L18" s="33">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M18" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N18" s="34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="32">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="P18" s="33">
+      <c r="K19" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="L19" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R18" s="33">
+        <v>0</v>
+      </c>
+      <c r="M19" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S18" s="33">
+        <v>0</v>
+      </c>
+      <c r="N19" s="31">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T18" s="33">
+        <v>0</v>
+      </c>
+      <c r="O19" s="30">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U18" s="34">
+        <v>0</v>
+      </c>
+      <c r="P19" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B19" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="35">
-        <f>SUM(E4:E7)</f>
-        <v>2</v>
-      </c>
-      <c r="F19" s="30">
-        <f t="shared" ref="F19:U19" si="1">SUM(F4:F7)</f>
+    <row r="20" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="32">
+        <f>SUM(E10:E17)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" ref="F20:U20" si="1">SUM(F10:F17)</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="33">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="30">
+      <c r="H20" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="30">
+        <v>0</v>
+      </c>
+      <c r="I20" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I19" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="35">
+      <c r="P20" s="33">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K19" s="30">
+      <c r="Q20" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L19" s="30">
+        <v>1</v>
+      </c>
+      <c r="R20" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="30">
+      <c r="S20" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19" s="36">
+      <c r="T20" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="35">
+        <v>4</v>
+      </c>
+      <c r="U20" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="37">
-        <f>SUM(E8:E15)</f>
-        <v>1</v>
-      </c>
-      <c r="F20" s="38">
-        <f t="shared" ref="F20:U20" si="2">SUM(F8:F15)</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="38">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M20" s="38">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="37">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="P20" s="38">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q20" s="38">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R20" s="38">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="S20" s="38">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T20" s="38">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U20" s="39">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="40" t="s">
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="40" t="s">
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="42"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="37"/>
     </row>
     <row r="23" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="50" t="s">
+      <c r="I23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="51" t="s">
+      <c r="L23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M23" s="52" t="s">
+      <c r="M23" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="50" t="s">
+      <c r="N23" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="50" t="s">
+      <c r="O23" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="P23" s="50" t="s">
+      <c r="P23" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="Q23" s="50" t="s">
+      <c r="Q23" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="R23" s="50" t="s">
+      <c r="R23" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="S23" s="51" t="s">
+      <c r="S23" s="46" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="41">
         <f>E19</f>
         <v>2</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="48">
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="48">
         <f>G19</f>
         <v>1</v>
       </c>
-      <c r="F24" s="53">
+      <c r="F24" s="48">
         <f>H19</f>
         <v>3</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="49">
         <f>I19</f>
         <v>1</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="41">
         <f>J19</f>
         <v>2</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="48">
         <f>K19</f>
         <v>2</v>
       </c>
-      <c r="J24" s="53">
+      <c r="J24" s="48">
         <f>L19</f>
         <v>0</v>
       </c>
-      <c r="K24" s="53">
+      <c r="K24" s="48">
         <f>M19</f>
         <v>0</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="49">
         <f>N19</f>
         <v>0</v>
       </c>
-      <c r="M24" s="55">
+      <c r="M24" s="50">
         <f>O19</f>
         <v>0</v>
       </c>
-      <c r="N24" s="53">
+      <c r="N24" s="48">
         <f>P19</f>
         <v>0</v>
       </c>
-      <c r="O24" s="53">
+      <c r="O24" s="48">
         <f>Q19</f>
         <v>0</v>
       </c>
-      <c r="P24" s="53">
+      <c r="P24" s="48">
         <f>R19</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="53">
+      <c r="Q24" s="48">
         <f>S19</f>
         <v>0</v>
       </c>
-      <c r="R24" s="53">
+      <c r="R24" s="48">
         <f>T19</f>
         <v>0</v>
       </c>
-      <c r="S24" s="54">
+      <c r="S24" s="49">
         <f>U19</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <f>E20</f>
         <v>1</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="23">
         <f>F20</f>
         <v>1</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="23">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="23">
         <f>H20</f>
         <v>0</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="22">
         <f>I20</f>
         <v>0</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <f>J20</f>
         <v>0</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="23">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="23">
         <f>L20</f>
         <v>1</v>
       </c>
-      <c r="K25" s="28">
+      <c r="K25" s="23">
         <f>M20</f>
         <v>1</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="22">
         <f>N20</f>
         <v>0</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="24">
         <f>O20</f>
         <v>3</v>
       </c>
-      <c r="N25" s="28">
+      <c r="N25" s="23">
         <f>P20</f>
         <v>2</v>
       </c>
-      <c r="O25" s="28">
+      <c r="O25" s="23">
         <f>Q20</f>
         <v>1</v>
       </c>
-      <c r="P25" s="28">
+      <c r="P25" s="23">
         <f>R20</f>
-        <v>2</v>
-      </c>
-      <c r="Q25" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="23">
         <f>S20</f>
-        <v>1</v>
-      </c>
-      <c r="R25" s="28">
+        <v>0</v>
+      </c>
+      <c r="R25" s="23">
         <f>T20</f>
-        <v>1</v>
-      </c>
-      <c r="S25" s="27">
+        <v>4</v>
+      </c>
+      <c r="S25" s="22">
         <f>U20</f>
         <v>2</v>
       </c>
@@ -8379,71 +8302,71 @@
         <v>62</v>
       </c>
       <c r="C26">
-        <f>SUM(E16:E17)</f>
+        <f>SUM(E8:E9)</f>
         <v>1</v>
       </c>
       <c r="D26">
-        <f>SUM(F16:F17)</f>
+        <f>SUM(F8:F9)</f>
         <v>0</v>
       </c>
       <c r="E26">
-        <f>SUM(G16:G17)</f>
+        <f>SUM(G8:G9)</f>
         <v>1</v>
       </c>
       <c r="F26">
-        <f>SUM(H16:H17)</f>
+        <f>SUM(H8:H9)</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>SUM(I16:I17)</f>
+        <f>SUM(I8:I9)</f>
         <v>0</v>
       </c>
       <c r="H26">
-        <f>SUM(J16:J17)</f>
+        <f>SUM(J8:J9)</f>
         <v>2</v>
       </c>
       <c r="I26">
-        <f>SUM(K16:K17)</f>
+        <f>SUM(K8:K9)</f>
         <v>2</v>
       </c>
       <c r="J26">
-        <f>SUM(L16:L17)</f>
+        <f>SUM(L8:L9)</f>
         <v>2</v>
       </c>
       <c r="K26">
-        <f>SUM(M16:M17)</f>
+        <f>SUM(M8:M9)</f>
         <v>0</v>
       </c>
       <c r="L26">
-        <f>SUM(N16:N17)</f>
+        <f>SUM(N8:N9)</f>
         <v>1</v>
       </c>
       <c r="M26">
-        <f>SUM(O16:O17)</f>
+        <f>SUM(O8:O9)</f>
         <v>0</v>
       </c>
       <c r="N26">
-        <f>SUM(P16:P17)</f>
+        <f>SUM(P8:P9)</f>
         <v>0</v>
       </c>
       <c r="O26">
-        <f>SUM(Q16:Q17)</f>
+        <f>SUM(Q8:Q9)</f>
         <v>0</v>
       </c>
       <c r="P26">
-        <f>SUM(R16:R17)</f>
+        <f>SUM(R8:R9)</f>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f>SUM(S16:S17)</f>
-        <v>1</v>
+        <f>SUM(S8:S9)</f>
+        <v>0</v>
       </c>
       <c r="R26">
-        <f>SUM(T16:T17)</f>
-        <v>0</v>
+        <f>SUM(T8:T9)</f>
+        <v>1</v>
       </c>
       <c r="S26">
-        <f>SUM(U16:U17)</f>
+        <f>SUM(U8:U9)</f>
         <v>0</v>
       </c>
     </row>
